--- a/src/test/resources/testdata/CWD1_CRMSCasesCreation.xlsx
+++ b/src/test/resources/testdata/CWD1_CRMSCasesCreation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="144">
   <si>
     <t>(Do Not Modify) CRMS Case</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t>CRMS-CWD1202571091</t>
+  </si>
+  <si>
+    <t>SIES-CWD3N6202564292</t>
+  </si>
+  <si>
+    <t>CRMS-CWD3N6202574750</t>
   </si>
 </sst>
 </file>
@@ -913,10 +919,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
